--- a/Data_for_Resume.xlsx
+++ b/Data_for_Resume.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Mac\Home\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Mac\Home\Documents\Power BI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5690AB69-781B-4845-AE55-D48A286DE3C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C956444-6FD1-4FB4-ACB6-1FF089EA7D2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{BDD0D7BA-8356-4D0C-9C14-6B276D1D1E1A}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22875" windowHeight="13650" xr2:uid="{BDD0D7BA-8356-4D0C-9C14-6B276D1D1E1A}"/>
   </bookViews>
   <sheets>
     <sheet name="Experience" sheetId="1" r:id="rId1"/>
@@ -55,9 +55,6 @@
     <t>August 2023 - June 2024</t>
   </si>
   <si>
-    <t>BI Developer (Contractor)</t>
-  </si>
-  <si>
     <t>October 2022 - August 2023</t>
   </si>
   <si>
@@ -65,9 +62,6 @@
   </si>
   <si>
     <t>February 2022 - October 2022</t>
-  </si>
-  <si>
-    <t>Quality Assurance Analyst – Analytics &amp; Information Systems</t>
   </si>
   <si>
     <t>July 2019 - February 2022</t>
@@ -191,12 +185,6 @@
     <t>Company</t>
   </si>
   <si>
-    <t>Heritage Plastics</t>
-  </si>
-  <si>
-    <t>Vertical Bridge</t>
-  </si>
-  <si>
     <t>Medical University of South Carolina</t>
   </si>
   <si>
@@ -206,7 +194,19 @@
     <t>Randstad</t>
   </si>
   <si>
-    <t>Business Intelligence Data Scientist  (Contractor)</t>
+    <t>3Ci</t>
+  </si>
+  <si>
+    <t>Insight Global</t>
+  </si>
+  <si>
+    <t>Analytics Developer (Contractor)</t>
+  </si>
+  <si>
+    <t>Business Intelligence Developer (Contractor)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quality Assurance Analyst </t>
   </si>
 </sst>
 </file>
@@ -606,8 +606,8 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H2" sqref="H2"/>
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -624,7 +624,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -638,13 +638,13 @@
     </row>
     <row r="2" spans="1:5" ht="409.6" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>4</v>
@@ -655,33 +655,33 @@
     </row>
     <row r="3" spans="1:5" ht="311.25" x14ac:dyDescent="0.45">
       <c r="A3" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>5</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>6</v>
       </c>
       <c r="E3" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="243.75" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" ht="216.75" x14ac:dyDescent="0.45">
       <c r="A4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>7</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>8</v>
       </c>
       <c r="E4" s="4">
         <v>3</v>
@@ -689,16 +689,16 @@
     </row>
     <row r="5" spans="1:5" ht="257.25" x14ac:dyDescent="0.45">
       <c r="A5" s="4" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E5" s="4">
         <v>2</v>
@@ -706,16 +706,16 @@
     </row>
     <row r="6" spans="1:5" ht="338.25" x14ac:dyDescent="0.45">
       <c r="A6" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E6" s="4">
         <v>1</v>
@@ -746,24 +746,24 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C2" s="4">
         <v>1</v>
@@ -774,10 +774,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C3" s="4">
         <v>0.9</v>
@@ -788,10 +788,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C4" s="4">
         <v>0.8</v>
@@ -802,10 +802,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C5" s="4">
         <v>0.7</v>
@@ -816,10 +816,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C6" s="4">
         <v>1</v>
@@ -830,10 +830,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C7" s="4">
         <v>0.9</v>
@@ -844,10 +844,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C8" s="4">
         <v>0.8</v>
@@ -858,10 +858,10 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C9" s="4">
         <v>0.7</v>
@@ -872,10 +872,10 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C10" s="4">
         <v>0.8</v>
@@ -886,10 +886,10 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C11" s="4">
         <v>0.6</v>
@@ -922,18 +922,18 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B2" s="4">
         <v>1</v>
@@ -944,7 +944,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B3" s="4">
         <v>0.9</v>
@@ -955,7 +955,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B4" s="4">
         <v>0.8</v>
@@ -966,7 +966,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B5" s="4">
         <v>0.7</v>
@@ -977,7 +977,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B6" s="4">
         <v>0.6</v>
